--- a/硬件接口表.xlsx
+++ b/硬件接口表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\Project_MacnumCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fu\Desktop\justforfun\My_MacnumCarBaseDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294CA7DB-1857-40C8-9353-0082150FC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D42ADD-EB03-4EE1-B9C9-97A38916EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2910" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,9 +532,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -553,8 +550,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,12 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,8 +579,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,425 +1004,425 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="112" customWidth="1"/>
     <col min="2" max="2" width="65.5" customWidth="1"/>
     <col min="3" max="3" width="146.5" customWidth="1"/>
     <col min="4" max="4" width="146" customWidth="1"/>
-    <col min="5" max="5" width="95.375" customWidth="1"/>
-    <col min="6" max="6" width="58.125" customWidth="1"/>
-    <col min="7" max="7" width="74.75" customWidth="1"/>
+    <col min="5" max="5" width="95.35546875" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" customWidth="1"/>
+    <col min="7" max="7" width="74.7109375" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
     <col min="9" max="9" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="1">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="231" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="231" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A13" s="6" t="s">
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A15" s="6" t="s">
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9" t="s">
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9" t="s">
+    <row r="17" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
+    <row r="18" spans="1:9" ht="89.15" x14ac:dyDescent="2">
       <c r="A18" s="19" t="s">
         <v>54</v>
       </c>
@@ -1435,231 +1435,241 @@
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A20" s="9" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A23" s="9" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A25" s="9" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A29" s="9" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A30" s="9" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A31" s="9" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A32" s="9" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="A33" s="9" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="89.15" x14ac:dyDescent="2">
+      <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B27:I27"/>
@@ -1667,16 +1677,6 @@
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
